--- a/skillset.xlsx
+++ b/skillset.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="17">
   <si>
     <t xml:space="preserve">SKILLSET</t>
   </si>
@@ -37,13 +37,19 @@
     <t xml:space="preserve">Terraform</t>
   </si>
   <si>
+    <t xml:space="preserve">YES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seun Awoga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ansible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bash Script</t>
+  </si>
+  <si>
     <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ansible</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bash Script</t>
   </si>
   <si>
     <t xml:space="preserve">AWS</t>
@@ -79,6 +85,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -100,22 +107,26 @@
       <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -201,10 +212,10 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
+      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="A1:D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="37.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.73"/>
@@ -231,121 +242,136 @@
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>5</v>
+      <c r="B2" s="4" t="n">
+        <v>3</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>5</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="B3" s="4" t="n">
+        <v>3</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>5</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>5</v>
+        <v>10</v>
+      </c>
+      <c r="B5" s="4" t="n">
+        <v>3</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>5</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>5</v>
+        <v>14</v>
+      </c>
+      <c r="B9" s="4" t="n">
+        <v>3</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>5</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>5</v>
+        <v>15</v>
+      </c>
+      <c r="B10" s="4" t="n">
+        <v>3</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>5</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/skillset.xlsx
+++ b/skillset.xlsx
@@ -73,10 +73,10 @@
     <t xml:space="preserve">N</t>
   </si>
   <si>
-    <t xml:space="preserve">Seun</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Segun</t>
+    <t xml:space="preserve">   Seun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Segun</t>
   </si>
 </sst>
 </file>
@@ -430,7 +430,7 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I19" activeCellId="0" sqref="I19"/>
+      <selection pane="topLeft" activeCell="P28" activeCellId="0" sqref="P28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -443,7 +443,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="8.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="12.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="19.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="19.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="17.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="14.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="8.83"/>

--- a/skillset.xlsx
+++ b/skillset.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Skillset" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="20">
   <si>
     <t xml:space="preserve">SKILLSET</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t xml:space="preserve">   Segun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tope</t>
   </si>
 </sst>
 </file>
@@ -261,7 +264,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -322,19 +325,35 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -429,24 +448,24 @@
   </sheetPr>
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P28" activeCellId="0" sqref="P28"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="8.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="8.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="12.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="19.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="17.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="14.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="8.83"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.6836734693878"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.63775510204082"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.63775510204082"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.63775510204082"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="12.5561224489796"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="19.4387755102041"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="17.4132653061224"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="14.4438775510204"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.63775510204082"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -715,234 +734,278 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="10"/>
-    </row>
-    <row r="9" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="E8" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="F8" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="L8" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="12"/>
+      <c r="B9" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="L9" s="18" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
       <c r="L10" s="13"/>
     </row>
     <row r="11" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
       <c r="L11" s="14"/>
     </row>
     <row r="12" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
       <c r="L12" s="10"/>
     </row>
     <row r="13" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
       <c r="L13" s="12"/>
     </row>
     <row r="14" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
       <c r="L14" s="13"/>
     </row>
     <row r="15" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
       <c r="L15" s="14"/>
     </row>
     <row r="16" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
       <c r="L16" s="10"/>
     </row>
     <row r="17" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
       <c r="L17" s="12"/>
     </row>
     <row r="18" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
       <c r="L18" s="13"/>
     </row>
     <row r="19" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
       <c r="L19" s="14"/>
     </row>
     <row r="20" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="19" t="s">
+      <c r="A20" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="21"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="25"/>
     </row>
     <row r="21" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="16"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
       <c r="L21" s="12"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
